--- a/wms-file/src/main/resources/template/import/INBOUND.xlsx
+++ b/wms-file/src/main/resources/template/import/INBOUND.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15690" windowHeight="4755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$C$2</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -123,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inboundNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ownerCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +133,10 @@
   </si>
   <si>
     <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inbound</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +537,7 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -572,7 +573,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -621,10 +622,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>28</v>
@@ -666,7 +667,7 @@
         <v>12</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>29</v>
